--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2528040.589119863</v>
+        <v>2632220.223570934</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>90.50519121882354</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>15.38559094376317</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.8172186824774</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.77200357366398</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>95.44336989065566</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>92.1158723577052</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>84.2229096522907</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.4651005027762</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>87.93270968653133</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>3.186321549970121</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.686682526454283</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.9502308569889</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>9.322651801233464</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>62.18842302760083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.16269384155261</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>201.7038532276742</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>154.5058101250899</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>140.3257100213634</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>261.3761590502106</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1670747424462</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>100.0416311957212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>177.6814669854336</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>5.890337106878487</v>
       </c>
       <c r="U34" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,10 +3325,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>158.7974735697951</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881304</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126791</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>181.087551684105</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>53.26309598425066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.64725059288511</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3104.087073040097</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
@@ -4413,10 +4415,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,22 +4433,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.1100998399248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>149.1100998399248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>149.1100998399248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U4" t="n">
-        <v>631.784138943829</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379422</v>
+        <v>162.919560766179</v>
       </c>
       <c r="W4" t="n">
-        <v>377.0996507379422</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>149.1100998399248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.1100998399248</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3232.559485894317</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3026.581738278539</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2773.051261552376</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>610.2994715124267</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>321.1966046380703</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218342</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3116.409567377262</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9544330261738</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>911.4701858169391</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>911.4701858169391</v>
       </c>
       <c r="U10" t="n">
-        <v>350.2677975281828</v>
+        <v>622.3673189425826</v>
       </c>
       <c r="V10" t="n">
-        <v>350.2677975281828</v>
+        <v>622.3673189425826</v>
       </c>
       <c r="W10" t="n">
-        <v>350.2677975281828</v>
+        <v>622.3673189425826</v>
       </c>
       <c r="X10" t="n">
-        <v>350.2677975281828</v>
+        <v>394.3777680445654</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.2677975281828</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168621</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362696</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797267</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,19 +5521,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.221817693721</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.146591037919</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.462102832032</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.044932795071</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6066,28 +6068,28 @@
         <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N24" t="n">
-        <v>4285.815356953929</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O24" t="n">
-        <v>4690.833152398593</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
         <v>4690.833152398593</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,19 +6308,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.8158034133954</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.444758237568</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X28" t="n">
-        <v>958.2568473871653</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.4642682436352</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>691.195150674524</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196493</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>2886.739351141028</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>2717.803168213121</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>2567.686528800786</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>3677.571434467154</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>3517.169946012816</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>3289.180395114798</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>3068.387815971268</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,25 +7426,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X43" t="n">
-        <v>1090.48308855706</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y43" t="n">
-        <v>869.6905094135296</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>593.6115863900017</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>445.6984928076085</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>298.8085453096982</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>105.058398071027</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>84.25835418137864</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>15.70159709961405</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>131.6786642641543</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>8.289762996848935</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>24.80831533903358</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>41.54258064659098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>40.90318636666117</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>211.5151132204098</v>
       </c>
       <c r="U34" t="n">
-        <v>180.5336875992872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>127.7255247667959</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.6085800303767</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>102.8768876993837</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.40260464529274e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26445,13 +26447,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26497,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016115</v>
+        <v>-873442.0145016118</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259811</v>
+        <v>455302.7312259813</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.731225981</v>
+        <v>455302.7312259808</v>
       </c>
       <c r="E6" t="n">
-        <v>204355.5920788754</v>
+        <v>204355.5920788752</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862305</v>
+        <v>529768.0538862307</v>
       </c>
       <c r="G6" t="n">
         <v>529768.0538862306</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862302</v>
+        <v>529768.0538862303</v>
       </c>
       <c r="I6" t="n">
+        <v>529768.0538862305</v>
+      </c>
+      <c r="J6" t="n">
+        <v>312236.8514889528</v>
+      </c>
+      <c r="K6" t="n">
         <v>529768.0538862306</v>
       </c>
-      <c r="J6" t="n">
-        <v>312236.851488953</v>
-      </c>
-      <c r="K6" t="n">
-        <v>529768.0538862305</v>
-      </c>
       <c r="L6" t="n">
-        <v>529768.0538862307</v>
+        <v>529768.05388623</v>
       </c>
       <c r="M6" t="n">
         <v>444713.0259507188</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862302</v>
+        <v>529768.0538862306</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862305</v>
+        <v>529768.0538862307</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862308</v>
+        <v>529768.0538862306</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.379638994602605e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>292.228650444657</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>312.3666675263717</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>64.66195907290519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.0796284459353</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>17.07188943047063</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>302.0150290037629</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>6.560707756252071</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9994429835160048</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>324.5659369201648</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.5512561295993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8817493249484</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>180.4463735302084</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31841,16 +31843,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32093,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32251,7 +32253,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32558,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202607</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33026,10 +33028,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>396.9700886943659</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N45" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35741,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>254.8360547723476</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N45" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632220.223570934</v>
+        <v>2628207.61355694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9026303.747822888</v>
+        <v>9026303.74782289</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.50519121882354</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>292.0070502789408</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363107959</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>95.44336989065566</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>370.0648965483579</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.2229096522907</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>159.4651005027762</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680971</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.186321549970121</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>9.322651801233464</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>60.19827945150353</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>61.16269384155261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>154.5058101250899</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>140.3257100213634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874485</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>261.3761590502106</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703231</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.6814669854336</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>5.890337106878487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174148</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>158.7974735697951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>35.41770597126791</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>181.087551684105</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1896.503151925171</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1527.54063498476</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1169.274936378009</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>783.4866837797649</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>776.5411830305615</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>361.4687328755579</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>2283.102991989293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720659</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720659</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>162.919560766179</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4609,10 +4609,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.1308394896936</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>471.1308394896936</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>471.1308394896936</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>471.1308394896936</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>471.1308394896936</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4755,22 +4755,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>471.1308394896936</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.1308394896936</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181401</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3116.409567377262</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>911.4701858169391</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>911.4701858169391</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>622.3673189425826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>622.3673189425826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>622.3673189425826</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>394.3777680445654</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.3777680445654</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362696</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>546.5917956728314</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5606,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.444758237568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.760270031681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.343099994721</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6636,37 +6636,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191926</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2886.739351141028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2717.803168213121</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2567.686528800786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2419.773435218392</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2419.773435218392</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218392</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3517.169946012816</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3289.180395114798</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3068.387815971268</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.544361637675</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.859873431788</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1250.442703394828</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>801.6605733532801</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823103</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>165.5113759375336</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.25835418137864</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>131.6786642641543</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>8.289762996848935</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.80831533903358</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194579</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.5151132204098</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>127.7255247667959</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6085800303767</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.0969227051391</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
@@ -26340,19 +26340,19 @@
         <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520044</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.40260464529274e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26441,19 +26441,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26499,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-873442.0145016118</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259813</v>
+        <v>455302.7312259808</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259808</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>204355.5920788752</v>
+        <v>204008.2128245186</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862307</v>
+        <v>529420.6746318736</v>
       </c>
       <c r="G6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318735</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862303</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="I6" t="n">
-        <v>529768.0538862305</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="J6" t="n">
-        <v>312236.8514889528</v>
+        <v>311889.472234596</v>
       </c>
       <c r="K6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.674631873</v>
       </c>
       <c r="L6" t="n">
-        <v>529768.05388623</v>
+        <v>529420.6746318733</v>
       </c>
       <c r="M6" t="n">
-        <v>444713.0259507188</v>
+        <v>444365.6466963617</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318733</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862307</v>
+        <v>529420.6746318733</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318735</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.379638994602605e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292.228650444657</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.600714108379691</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>191.0796284459353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512271</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.0150290037629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.560707756252071</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>126.4919521192234</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>324.5659369201648</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>180.4463735302084</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>64.81814676751881</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.707735062108397e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31843,13 +31843,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32952,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>396.9700886943659</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37004,7 +37004,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723476</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628207.61355694</v>
+        <v>2629968.143859727</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9026303.74782289</v>
+        <v>9026303.747822888</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>329.9564011125126</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>292.0070502789408</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677213</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.0648965483579</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>208.7099749169699</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>295.3683824677681</v>
       </c>
       <c r="H8" t="n">
-        <v>168.1158122680971</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.7048515690722</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>60.19827945150353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>105.1162657551305</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>74.20064764874485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977265</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703231</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1896.503151925171</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1527.54063498476</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.274936378009</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="E2" t="n">
-        <v>783.4866837797649</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>776.5411830305615</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>361.4687328755579</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989293</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989293</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
@@ -4400,37 +4400,37 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201686</v>
@@ -4439,13 +4439,13 @@
         <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>3252.789632268997</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>3083.85344934109</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>2933.736809928755</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>2785.823716346361</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>2638.933768848451</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4770,7 +4770,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1203.635074063161</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162751</v>
+        <v>817.8468214649163</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731436</v>
+        <v>406.8609166753087</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3260682181401</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -5001,13 +5001,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,55 +5023,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.523556479149</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356194</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,28 +6460,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6542,19 +6542,19 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6636,37 +6636,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>165.5113759375336</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780072</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124962</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194579</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="13">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
@@ -26328,34 +26328,34 @@
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520044</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405253</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405253</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26441,7 +26441,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016118</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259808</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="D6" t="n">
         <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>204008.2128245186</v>
+        <v>204320.8541534398</v>
       </c>
       <c r="F6" t="n">
-        <v>529420.6746318736</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="G6" t="n">
-        <v>529420.6746318735</v>
+        <v>529733.3159607949</v>
       </c>
       <c r="H6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.315960795</v>
       </c>
       <c r="I6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="J6" t="n">
-        <v>311889.472234596</v>
+        <v>312202.1135635169</v>
       </c>
       <c r="K6" t="n">
-        <v>529420.674631873</v>
+        <v>529733.3159607946</v>
       </c>
       <c r="L6" t="n">
-        <v>529420.6746318733</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="M6" t="n">
-        <v>444365.6466963617</v>
+        <v>444678.2880252828</v>
       </c>
       <c r="N6" t="n">
-        <v>529420.6746318733</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="O6" t="n">
-        <v>529420.6746318733</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="P6" t="n">
-        <v>529420.6746318735</v>
+        <v>529733.3159607946</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51.97396895974919</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.600714108379691</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351652</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754824</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.66894511512271</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>173.2203951552919</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>115.5533431856854</v>
       </c>
       <c r="H8" t="n">
-        <v>126.4919521192234</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>64.81814676751881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.707735062108397e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>555.0107214892114</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37004,7 +37004,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>423.6690094058781</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
